--- a/7/1/1/4/1/Series originales 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/4/1/Series originales 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
   <si>
     <t>Serie</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -746,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA102"/>
+  <dimension ref="A1:AA103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8732,82 +8735,165 @@
         <v>124</v>
       </c>
       <c r="B102">
-        <v>54525</v>
+        <v>54616</v>
       </c>
       <c r="C102">
-        <v>41095</v>
+        <v>41167</v>
       </c>
       <c r="D102">
-        <v>33088</v>
+        <v>33170</v>
       </c>
       <c r="E102">
-        <v>3477</v>
+        <v>3482</v>
       </c>
       <c r="F102">
-        <v>14733</v>
+        <v>14728</v>
       </c>
       <c r="G102">
-        <v>14878</v>
+        <v>14961</v>
       </c>
       <c r="H102">
-        <v>8007</v>
+        <v>7997</v>
       </c>
       <c r="I102">
-        <v>10735</v>
+        <v>10810</v>
       </c>
       <c r="J102">
-        <v>6457</v>
+        <v>6493</v>
       </c>
       <c r="K102">
-        <v>4278</v>
+        <v>4317</v>
       </c>
       <c r="L102">
-        <v>2694</v>
+        <v>2639</v>
       </c>
       <c r="M102">
-        <v>17051</v>
+        <v>17252</v>
       </c>
       <c r="N102">
-        <v>15856</v>
+        <v>16099</v>
       </c>
       <c r="O102">
-        <v>2046</v>
+        <v>2103</v>
       </c>
       <c r="P102">
-        <v>9311</v>
+        <v>9495</v>
       </c>
       <c r="Q102">
-        <v>8574</v>
+        <v>8757</v>
       </c>
       <c r="R102">
         <v>738</v>
       </c>
       <c r="S102">
-        <v>4499</v>
+        <v>4501</v>
       </c>
       <c r="T102">
-        <v>1195</v>
+        <v>1153</v>
       </c>
       <c r="U102">
-        <v>15371</v>
+        <v>15434</v>
       </c>
       <c r="V102">
-        <v>14006</v>
+        <v>14025</v>
       </c>
       <c r="W102">
         <v>310</v>
       </c>
       <c r="X102">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="Y102">
-        <v>12468</v>
+        <v>12481</v>
       </c>
       <c r="Z102">
-        <v>1365</v>
+        <v>1409</v>
       </c>
       <c r="AA102">
-        <v>56205</v>
+        <v>56433</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27">
+      <c r="A103" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103">
+        <v>55836</v>
+      </c>
+      <c r="C103">
+        <v>43315</v>
+      </c>
+      <c r="D103">
+        <v>34821</v>
+      </c>
+      <c r="E103">
+        <v>4356</v>
+      </c>
+      <c r="F103">
+        <v>14720</v>
+      </c>
+      <c r="G103">
+        <v>15745</v>
+      </c>
+      <c r="H103">
+        <v>8494</v>
+      </c>
+      <c r="I103">
+        <v>11578</v>
+      </c>
+      <c r="J103">
+        <v>7135</v>
+      </c>
+      <c r="K103">
+        <v>4443</v>
+      </c>
+      <c r="L103">
+        <v>943</v>
+      </c>
+      <c r="M103">
+        <v>17716</v>
+      </c>
+      <c r="N103">
+        <v>16617</v>
+      </c>
+      <c r="O103">
+        <v>1001</v>
+      </c>
+      <c r="P103">
+        <v>10658</v>
+      </c>
+      <c r="Q103">
+        <v>9755</v>
+      </c>
+      <c r="R103">
+        <v>903</v>
+      </c>
+      <c r="S103">
+        <v>4958</v>
+      </c>
+      <c r="T103">
+        <v>1099</v>
+      </c>
+      <c r="U103">
+        <v>16126</v>
+      </c>
+      <c r="V103">
+        <v>14766</v>
+      </c>
+      <c r="W103">
+        <v>318</v>
+      </c>
+      <c r="X103">
+        <v>1384</v>
+      </c>
+      <c r="Y103">
+        <v>13063</v>
+      </c>
+      <c r="Z103">
+        <v>1360</v>
+      </c>
+      <c r="AA103">
+        <v>57427</v>
       </c>
     </row>
   </sheetData>
